--- a/Data/soil.xlsx
+++ b/Data/soil.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F227B-AF31-A44D-8D4C-03F2AF741E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94DBCC4-2380-454F-A006-862084A871DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{4DAB24B0-1F5B-734D-9565-94F6E944AB77}"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" activeTab="1" xr2:uid="{4DAB24B0-1F5B-734D-9565-94F6E944AB77}"/>
   </bookViews>
   <sheets>
     <sheet name="BaselineSoilSamples" sheetId="1" r:id="rId1"/>
-    <sheet name="SoilHealthSamples" sheetId="2" r:id="rId2"/>
+    <sheet name="Destruction1" sheetId="3" r:id="rId2"/>
+    <sheet name="SoilHealthSamples" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>unique sample_id</t>
   </si>
@@ -89,6 +90,18 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>0-7.5</t>
+  </si>
+  <si>
+    <t>7.5-15</t>
+  </si>
+  <si>
+    <t>15-</t>
   </si>
 </sst>
 </file>
@@ -484,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA2D1A8-315A-2342-842E-EEAF850E545E}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -536,6 +549,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06C3379-1776-B34C-B218-C5105F12C5FD}">
+  <dimension ref="B1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BCFF0C-0E96-5E41-AA0B-86F75A441D5F}">
   <dimension ref="A1"/>
   <sheetViews>
